--- a/public/downloadlist/exportfile.xlsx
+++ b/public/downloadlist/exportfile.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -396,357 +396,483 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>panlei</v>
+        <v>用户31</v>
       </c>
       <c r="B2" t="str">
-        <v>234567</v>
+        <v>代码1</v>
       </c>
       <c r="C2" t="str">
-        <v>2018-04-26 15:56:02</v>
+        <v>2018-04-24 18:12:02</v>
       </c>
       <c r="D2" t="str">
-        <v>::ffff:114.251.49.130</v>
+        <v>::ffff:127.0.0.1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>糹��z�_x001e_y_x0008_nY_x0019_�</v>
+        <v>用户31</v>
       </c>
       <c r="B3" t="str">
-        <v>300456</v>
+        <v>代码24</v>
       </c>
       <c r="C3" t="str">
-        <v>2018-04-26 15:50:27</v>
+        <v>2018-04-24 18:12:00</v>
       </c>
       <c r="D3" t="str">
-        <v>::ffff:114.251.49.130</v>
+        <v>::ffff:127.0.0.1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>panlei</v>
+        <v>用户31</v>
       </c>
       <c r="B4" t="str">
-        <v>600701</v>
+        <v>代码24</v>
       </c>
       <c r="C4" t="str">
-        <v>2018-04-26 15:22:39</v>
+        <v>2018-04-24 18:11:59</v>
       </c>
       <c r="D4" t="str">
-        <v>::ffff:106.120.247.14</v>
+        <v>::ffff:127.0.0.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>panlei</v>
+        <v>用户31</v>
       </c>
       <c r="B5" t="str">
-        <v>600701</v>
+        <v>代码24</v>
       </c>
       <c r="C5" t="str">
-        <v>2018-04-26 15:22:39</v>
+        <v>2018-04-24 18:11:59</v>
       </c>
       <c r="D5" t="str">
-        <v>::ffff:106.120.247.14</v>
+        <v>::ffff:127.0.0.1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>panlei</v>
+        <v>用户31</v>
       </c>
       <c r="B6" t="str">
-        <v>600701</v>
+        <v>代码24</v>
       </c>
       <c r="C6" t="str">
-        <v>2018-04-26 15:22:38</v>
+        <v>2018-04-24 18:11:58</v>
       </c>
       <c r="D6" t="str">
-        <v>::ffff:106.120.247.14</v>
+        <v>::ffff:127.0.0.1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>panlei</v>
+        <v>用户31</v>
       </c>
       <c r="B7" t="str">
-        <v>600701</v>
+        <v>代码2</v>
       </c>
       <c r="C7" t="str">
-        <v>2018-04-26 15:22:38</v>
+        <v>2018-04-24 18:11:55</v>
       </c>
       <c r="D7" t="str">
-        <v>::ffff:106.120.247.14</v>
+        <v>::ffff:127.0.0.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>panlei</v>
+        <v>用户31</v>
       </c>
       <c r="B8" t="str">
-        <v>600701</v>
+        <v>代码2</v>
       </c>
       <c r="C8" t="str">
-        <v>2018-04-26 15:22:38</v>
+        <v>2018-04-24 18:11:25</v>
       </c>
       <c r="D8" t="str">
-        <v>::ffff:106.120.247.14</v>
+        <v>::ffff:127.0.0.1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>panlei</v>
+        <v>stkasmf</v>
       </c>
       <c r="B9" t="str">
-        <v>600701</v>
+        <v>1aa</v>
       </c>
       <c r="C9" t="str">
-        <v>2018-04-26 15:22:37</v>
+        <v>2018-04-24 18:09:56</v>
       </c>
       <c r="D9" t="str">
-        <v>::ffff:106.120.247.14</v>
+        <v>::ffff:127.0.0.1</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>panlei</v>
+        <v>stkasmf</v>
       </c>
       <c r="B10" t="str">
-        <v>600701</v>
+        <v>1aa</v>
       </c>
       <c r="C10" t="str">
-        <v>2018-04-26 15:22:37</v>
+        <v>2018-04-24 18:09:50</v>
       </c>
       <c r="D10" t="str">
-        <v>::ffff:106.120.247.14</v>
+        <v>::ffff:127.0.0.1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>panlei</v>
+        <v>stkasmf</v>
       </c>
       <c r="B11" t="str">
-        <v>600701</v>
+        <v>1aa</v>
       </c>
       <c r="C11" t="str">
-        <v>2018-04-26 15:22:35</v>
+        <v>2018-04-24 18:09:49</v>
       </c>
       <c r="D11" t="str">
-        <v>::ffff:106.120.247.14</v>
+        <v>::ffff:127.0.0.1</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>panlei</v>
+        <v>stkasmf</v>
       </c>
       <c r="B12" t="str">
-        <v>600704</v>
+        <v>1aa</v>
       </c>
       <c r="C12" t="str">
-        <v>2018-04-26 15:22:33</v>
+        <v>2018-04-24 17:54:03</v>
       </c>
       <c r="D12" t="str">
-        <v>::ffff:106.120.247.14</v>
+        <v>::ffff:127.0.0.1</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>panlei</v>
+        <v>stkasmf</v>
       </c>
       <c r="B13" t="str">
-        <v>300070</v>
+        <v>1aa</v>
       </c>
       <c r="C13" t="str">
-        <v>2018-04-26 15:22:23</v>
+        <v>2018-04-24 17:53:20</v>
       </c>
       <c r="D13" t="str">
-        <v>::ffff:106.120.247.14</v>
+        <v>::ffff:127.0.0.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>panlei</v>
+        <v>stkasmf</v>
       </c>
       <c r="B14" t="str">
-        <v>123456</v>
+        <v>1aa</v>
       </c>
       <c r="C14" t="str">
-        <v>2018-04-26 15:20:59</v>
+        <v>2018-04-24 17:48:16</v>
       </c>
       <c r="D14" t="str">
-        <v>::ffff:106.120.247.14</v>
+        <v>::ffff:127.0.0.1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>糹��z�_x001e_y_x0008_nY_x0019_�</v>
+        <v>stkasmf</v>
       </c>
       <c r="B15" t="str">
-        <v>111</v>
+        <v>1aa</v>
       </c>
       <c r="C15" t="str">
-        <v>2018-04-26 15:19:29</v>
+        <v>2018-04-24 17:47:51</v>
       </c>
       <c r="D15" t="str">
-        <v>::ffff:106.120.247.14</v>
+        <v>::ffff:127.0.0.1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>16ߎx㞺</v>
+        <v>stkasmf</v>
       </c>
       <c r="B16" t="str">
-        <v>代码5</v>
+        <v>123</v>
       </c>
       <c r="C16" t="str">
-        <v>2018-04-26 13:09:29</v>
+        <v>2018-04-24 17:45:30</v>
       </c>
       <c r="D16" t="str">
-        <v>::ffff:106.120.30.121</v>
+        <v>::ffff:127.0.0.1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>16ߎx㞺</v>
+        <v>stkasmf</v>
       </c>
       <c r="B17" t="str">
-        <v>123456</v>
+        <v>123</v>
       </c>
       <c r="C17" t="str">
-        <v>2018-04-26 13:09:07</v>
+        <v>2018-04-24 17:45:19</v>
       </c>
       <c r="D17" t="str">
-        <v>::ffff:114.251.49.130</v>
+        <v>::ffff:127.0.0.1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>1</v>
+        <v>stkasmf</v>
       </c>
       <c r="B18" t="str">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C18" t="str">
-        <v>2018-04-26 13:04:19</v>
+        <v>2018-04-24 17:44:36</v>
       </c>
       <c r="D18" t="str">
-        <v>::ffff:106.118.122.64</v>
+        <v>::ffff:127.0.0.1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>1</v>
+        <v>stkasmf</v>
       </c>
       <c r="B19" t="str">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C19" t="str">
-        <v>2018-04-26 13:04:19</v>
+        <v>2018-04-24 17:43:42</v>
       </c>
       <c r="D19" t="str">
-        <v>::ffff:106.118.122.64</v>
+        <v>::ffff:127.0.0.1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>1</v>
+        <v>stkasmf</v>
       </c>
       <c r="B20" t="str">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C20" t="str">
-        <v>2018-04-26 13:04:18</v>
+        <v>2018-04-24 17:43:42</v>
       </c>
       <c r="D20" t="str">
-        <v>::ffff:106.118.122.64</v>
+        <v>::ffff:127.0.0.1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>1</v>
+        <v>stkasmf</v>
       </c>
       <c r="B21" t="str">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C21" t="str">
-        <v>2018-04-26 13:04:17</v>
+        <v>2018-04-24 17:43:42</v>
       </c>
       <c r="D21" t="str">
-        <v>::ffff:106.118.122.64</v>
+        <v>::ffff:127.0.0.1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>123%0A</v>
+        <v>stkasmf</v>
       </c>
       <c r="B22" t="str">
-        <v>额</v>
+        <v>123</v>
       </c>
       <c r="C22" t="str">
-        <v>2018-04-26 13:03:48</v>
+        <v>2018-04-24 17:43:41</v>
       </c>
       <c r="D22" t="str">
-        <v>::ffff:106.118.122.64</v>
+        <v>::ffff:127.0.0.1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>123%0A</v>
+        <v>stkasmf</v>
       </c>
       <c r="B23" t="str">
-        <v>额</v>
+        <v>123</v>
       </c>
       <c r="C23" t="str">
-        <v>2018-04-26 13:03:46</v>
+        <v>2018-04-24 17:43:41</v>
       </c>
       <c r="D23" t="str">
-        <v>::ffff:106.118.122.64</v>
+        <v>::ffff:127.0.0.1</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>123%0A</v>
+        <v>stkasmf</v>
       </c>
       <c r="B24" t="str">
-        <v>额</v>
+        <v>123</v>
       </c>
       <c r="C24" t="str">
-        <v>2018-04-26 13:03:46</v>
+        <v>2018-04-24 17:43:41</v>
       </c>
       <c r="D24" t="str">
-        <v>::ffff:106.118.122.64</v>
+        <v>::ffff:127.0.0.1</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>123%0A</v>
+        <v>stkasmf</v>
       </c>
       <c r="B25" t="str">
-        <v>额</v>
+        <v>123</v>
       </c>
       <c r="C25" t="str">
-        <v>2018-04-26 13:03:45</v>
+        <v>2018-04-24 17:43:40</v>
       </c>
       <c r="D25" t="str">
-        <v>::ffff:106.118.122.64</v>
+        <v>::ffff:127.0.0.1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>123%0A</v>
+        <v>stkasmf</v>
       </c>
       <c r="B26" t="str">
-        <v>额</v>
+        <v>123</v>
       </c>
       <c r="C26" t="str">
-        <v>2018-04-26 13:03:39</v>
+        <v>2018-04-24 17:43:40</v>
       </c>
       <c r="D26" t="str">
-        <v>::ffff:106.118.122.64</v>
+        <v>::ffff:127.0.0.1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="str">
+        <v>stkasmf</v>
+      </c>
+      <c r="B27" t="str">
+        <v>123</v>
+      </c>
+      <c r="C27" t="str">
+        <v>2018-04-24 17:43:40</v>
+      </c>
+      <c r="D27" t="str">
+        <v>::ffff:127.0.0.1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="str">
+        <v>stkasmf</v>
+      </c>
+      <c r="B28" t="str">
+        <v>123</v>
+      </c>
+      <c r="C28" t="str">
+        <v>2018-04-24 17:43:38</v>
+      </c>
+      <c r="D28" t="str">
+        <v>::ffff:127.0.0.1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="str">
+        <v>stkasmf</v>
+      </c>
+      <c r="B29" t="str">
+        <v>123</v>
+      </c>
+      <c r="C29" t="str">
+        <v>2018-04-24 17:43:35</v>
+      </c>
+      <c r="D29" t="str">
+        <v>::ffff:127.0.0.1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="str">
+        <v>stkasmf</v>
+      </c>
+      <c r="B30" t="str">
+        <v>123</v>
+      </c>
+      <c r="C30" t="str">
+        <v>2018-04-24 17:40:32</v>
+      </c>
+      <c r="D30" t="str">
+        <v>::ffff:127.0.0.1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>stkasmf</v>
+      </c>
+      <c r="B31" t="str">
+        <v>123</v>
+      </c>
+      <c r="C31" t="str">
+        <v>2018-04-24 17:40:30</v>
+      </c>
+      <c r="D31" t="str">
+        <v>::ffff:127.0.0.1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>stkasmf</v>
+      </c>
+      <c r="B32" t="str">
+        <v>123</v>
+      </c>
+      <c r="C32" t="str">
+        <v>2018-04-24 17:39:57</v>
+      </c>
+      <c r="D32" t="str">
+        <v>::ffff:127.0.0.1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>stkasmf</v>
+      </c>
+      <c r="B33" t="str">
+        <v>123</v>
+      </c>
+      <c r="C33" t="str">
+        <v>2018-04-24 17:39:20</v>
+      </c>
+      <c r="D33" t="str">
+        <v>::ffff:127.0.0.1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>stkasmf</v>
+      </c>
+      <c r="B34" t="str">
+        <v>123</v>
+      </c>
+      <c r="C34" t="str">
+        <v>2018-04-24 17:38:20</v>
+      </c>
+      <c r="D34" t="str">
+        <v>::ffff:127.0.0.1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>stkasmf</v>
+      </c>
+      <c r="B35" t="str">
+        <v>123</v>
+      </c>
+      <c r="C35" t="str">
+        <v>2018-04-24 17:36:13</v>
+      </c>
+      <c r="D35" t="str">
+        <v>::ffff:127.0.0.1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D26"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D35"/>
   </ignoredErrors>
 </worksheet>
 </file>